--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
@@ -55,39 +49,33 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,91 +85,106 @@
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>important</t>
   </si>
   <si>
     <t>please</t>
@@ -190,10 +193,16 @@
     <t>sure</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,37 +732,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <v>22</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6948051948051948</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L9">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
       <c r="M9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,49 +1032,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>154</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>7</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.375</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3571428571428572</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,491 +1182,395 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2962962962962963</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>135</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L15">
+        <v>37</v>
+      </c>
+      <c r="M15">
+        <v>37</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L17">
+        <v>85</v>
+      </c>
+      <c r="M17">
+        <v>85</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.6875</v>
+      </c>
+      <c r="L18">
+        <v>110</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.6698113207547169</v>
+      </c>
+      <c r="L20">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>71</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
-      <c r="D14">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="L23">
+        <v>94</v>
+      </c>
+      <c r="M23">
+        <v>94</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L26">
+        <v>59</v>
+      </c>
+      <c r="M26">
+        <v>59</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.62</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>19</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2918454935622318</v>
-      </c>
-      <c r="C15">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>68</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>165</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L15">
-        <v>54</v>
-      </c>
-      <c r="M15">
-        <v>54</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>68</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.175</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L17">
-        <v>42</v>
-      </c>
-      <c r="M17">
-        <v>42</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>98</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.72</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.64</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K24">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="L24">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L27">
-        <v>77</v>
-      </c>
-      <c r="M27">
-        <v>77</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L28">
         <v>16</v>
@@ -1675,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5258215962441315</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L29">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1701,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1727,73 +1640,73 @@
         <v>0</v>
       </c>
       <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.4934725848563969</v>
+      </c>
+      <c r="L31">
+        <v>189</v>
+      </c>
+      <c r="M31">
+        <v>189</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.4341085271317829</v>
-      </c>
-      <c r="L32">
-        <v>56</v>
-      </c>
-      <c r="M32">
-        <v>56</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.35</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3478260869565217</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1831,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.2916666666666667</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1857,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.1891891891891892</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,33 +1822,215 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39">
+        <v>0.3682008368200837</v>
+      </c>
+      <c r="L39">
+        <v>88</v>
+      </c>
+      <c r="M39">
+        <v>88</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40">
+        <v>0.296875</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L41">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K38">
-        <v>0.004475703324808184</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>1557</v>
+      <c r="K42">
+        <v>0.0145413870246085</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43">
+        <v>0.0144284128745838</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.007940214852872489</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>0.89</v>
+      </c>
+      <c r="O44">
+        <v>0.11</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.006117192530585963</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>0.95</v>
+      </c>
+      <c r="O45">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,16 @@
     <t>crude</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
@@ -58,117 +64,108 @@
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>free</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -178,31 +175,31 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>please</t>
+    <t>hope</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -563,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5856164383561644</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,16 +900,16 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5172413793103449</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2549019607843137</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1000,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1851851851851852</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1733333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7682926829268293</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1705426356589147</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C13">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,31 +1147,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.7578125</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.765625</v>
-      </c>
-      <c r="L13">
-        <v>98</v>
-      </c>
-      <c r="M13">
-        <v>98</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.09395973154362416</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,21 +1221,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.05158730158730158</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>239</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,47 +1271,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
+        <v>38</v>
+      </c>
+      <c r="M16">
+        <v>38</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>13</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L17">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1328,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6785714285714286</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1354,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6698113207547169</v>
+        <v>0.7125</v>
       </c>
       <c r="L20">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6619718309859155</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L23">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M23">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1458,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6521739130434783</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6349206349206349</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6276595744680851</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1562,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5925925925925926</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1588,12 +1609,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>0.5416666666666666</v>
@@ -1619,16 +1640,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5106382978723404</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1640,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4934725848563969</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L31">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="M31">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1666,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4705882352941176</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1692,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4352941176470588</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L33">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="M33">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1718,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4269662921348314</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1744,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4101694915254237</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L35">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1770,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>174</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1796,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3835616438356164</v>
+        <v>0.325</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1822,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3777777777777778</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1848,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.3682008368200837</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L39">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1874,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>151</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.296875</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1900,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.2692307692307692</v>
+        <v>0.203125</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1926,12 +1947,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <v>0.0145413870246085</v>
@@ -1957,79 +1978,27 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.0144284128745838</v>
+        <v>0.004835589941972921</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44">
-        <v>0.007940214852872489</v>
-      </c>
-      <c r="L44">
-        <v>17</v>
-      </c>
-      <c r="M44">
-        <v>19</v>
-      </c>
-      <c r="N44">
-        <v>0.89</v>
-      </c>
-      <c r="O44">
-        <v>0.11</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45">
-        <v>0.006117192530585963</v>
-      </c>
-      <c r="L45">
-        <v>19</v>
-      </c>
-      <c r="M45">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>0.95</v>
-      </c>
-      <c r="O45">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
         <v>3087</v>
       </c>
     </row>
